--- a/resultados parciais.xlsx
+++ b/resultados parciais.xlsx
@@ -1,48 +1,603 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiexin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
+    <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+  <si>
+    <t>Metricas Coletadas</t>
+  </si>
+  <si>
+    <t>login no git</t>
+  </si>
+  <si>
+    <t>Id no stackoverflow</t>
+  </si>
+  <si>
+    <t>Percentual de issues fechadas</t>
+  </si>
+  <si>
+    <t>Quantidade de reações nas issues</t>
+  </si>
+  <si>
+    <t>Percentual de segudores da linguagem da vaga</t>
+  </si>
+  <si>
+    <t>Percentual de repositórios na mesma linguagem da vaga</t>
+  </si>
+  <si>
+    <t>Popularidade do repositório</t>
+  </si>
+  <si>
+    <t>Média de watchers</t>
+  </si>
+  <si>
+    <t>Percentual de perguntas da linguagem da vaga</t>
+  </si>
+  <si>
+    <t>Score médio das perguntas</t>
+  </si>
+  <si>
+    <t>Percentual de respostas da linguagem da vaga</t>
+  </si>
+  <si>
+    <t>Score médio das respostas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reputação </t>
+  </si>
+  <si>
+    <t>jwd-ali</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>1.78</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>ankitkanojia</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>2.49</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>polm</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>denistsoi</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>cagri90</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>Escala das metricas coletadas</t>
+  </si>
+  <si>
+    <t>Escala do percentual de issues fechadas</t>
+  </si>
+  <si>
+    <t>Escala do percentual de segudores</t>
+  </si>
+  <si>
+    <t>Escala do percentual de repositórios na mesma linguagem da vaga</t>
+  </si>
+  <si>
+    <t>Escala do percentual de perguntas da linguagem da vaga</t>
+  </si>
+  <si>
+    <t>escala do score médio das perguntas</t>
+  </si>
+  <si>
+    <t>Escala do percentual de respostas da linguagem da vaga</t>
+  </si>
+  <si>
+    <t>escala do score médio das respostas</t>
+  </si>
+  <si>
+    <t>Escala da reputação</t>
+  </si>
+  <si>
+    <t>Score Geral</t>
+  </si>
+  <si>
+    <t>Vaga Linkedin</t>
+  </si>
+  <si>
+    <t>Ranking Adesão à vaga</t>
+  </si>
+  <si>
+    <t>nivel</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Escala da vaga</t>
+  </si>
+  <si>
+    <t>Pleno-senior</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/1819425686</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,24 +605,368 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="40% - Ênfase 4" xfId="3" builtinId="43"/>
+    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
+    <cellStyle name="Célula Vinculada" xfId="5" builtinId="24"/>
+    <cellStyle name="Célula de Verificação" xfId="6" builtinId="23"/>
+    <cellStyle name="Moeda [0]" xfId="7" builtinId="7"/>
+    <cellStyle name="20% - Ênfase 3" xfId="8" builtinId="38"/>
+    <cellStyle name="Moeda" xfId="9" builtinId="4"/>
+    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
+    <cellStyle name="40% - Ênfase 2" xfId="12" builtinId="35"/>
+    <cellStyle name="Observação" xfId="13" builtinId="10"/>
+    <cellStyle name="40% - Ênfase 6" xfId="14" builtinId="51"/>
+    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11"/>
+    <cellStyle name="Título" xfId="16" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53"/>
+    <cellStyle name="Ênfase 3" xfId="18" builtinId="37"/>
+    <cellStyle name="Título 1" xfId="19" builtinId="16"/>
+    <cellStyle name="Ênfase 4" xfId="20" builtinId="41"/>
+    <cellStyle name="Título 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Ênfase 5" xfId="22" builtinId="45"/>
+    <cellStyle name="Título 3" xfId="23" builtinId="18"/>
+    <cellStyle name="Ênfase 6" xfId="24" builtinId="49"/>
+    <cellStyle name="Título 4" xfId="25" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="26" builtinId="20"/>
+    <cellStyle name="Saída" xfId="27" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="28" builtinId="22"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="40% - Ênfase 1" xfId="30" builtinId="31"/>
+    <cellStyle name="Bom" xfId="31" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="32" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - Ênfase 5" xfId="34" builtinId="46"/>
+    <cellStyle name="Ênfase 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="36" builtinId="30"/>
+    <cellStyle name="60% - Ênfase 1" xfId="37" builtinId="32"/>
+    <cellStyle name="20% - Ênfase 6" xfId="38" builtinId="50"/>
+    <cellStyle name="Ênfase 2" xfId="39" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="40" builtinId="34"/>
+    <cellStyle name="60% - Ênfase 2" xfId="41" builtinId="36"/>
+    <cellStyle name="40% - Ênfase 3" xfId="42" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="43" builtinId="40"/>
+    <cellStyle name="20% - Ênfase 4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% - Ênfase 4" xfId="45" builtinId="44"/>
+    <cellStyle name="40% - Ênfase 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -116,7 +1015,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -151,7 +1050,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,23 +1224,616 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="10.6666666666667" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="2.44444444444444" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.4444444444444" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.8888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.2222222222222" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6666666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.8888888888889" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.8888888888889" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.4444444444444" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.2222222222222" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.6666666666667" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="8" customHeight="1"/>
+    <row r="2" spans="2:3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" ht="41.4" spans="2:14">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1780632</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="N4" s="5">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5783700</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1.12</v>
+      </c>
+      <c r="N5" s="5">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4">
+        <v>355715</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5">
+        <v>35</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1.15</v>
+      </c>
+      <c r="N6" s="5">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2312051</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5">
+        <v>43</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>2.31</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="N7" s="5">
+        <v>3698</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2576254</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>43</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1.08</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="N8" s="5">
+        <v>4540</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" ht="69" spans="2:11">
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1780632</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>3</v>
+      </c>
+      <c r="K13" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5783700</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2</v>
+      </c>
+      <c r="F14" s="6">
+        <v>4</v>
+      </c>
+      <c r="G14" s="6">
+        <v>4</v>
+      </c>
+      <c r="H14" s="6">
+        <v>3</v>
+      </c>
+      <c r="I14" s="6">
+        <v>3</v>
+      </c>
+      <c r="J14" s="6">
+        <v>2</v>
+      </c>
+      <c r="K14" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4">
+        <v>355715</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6">
+        <v>2</v>
+      </c>
+      <c r="K15" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2312051</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4</v>
+      </c>
+      <c r="F16" s="6">
+        <v>4</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>3</v>
+      </c>
+      <c r="I16" s="6">
+        <v>3</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2576254</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2</v>
+      </c>
+      <c r="G17" s="6">
+        <v>2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2</v>
+      </c>
+      <c r="I17" s="6">
+        <v>3</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+      <c r="K17" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" ht="27.6" spans="2:10">
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" ht="67.2" spans="2:10">
+      <c r="B22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="4">
+        <v>5783700</v>
+      </c>
+      <c r="D22" s="8">
+        <f>AVERAGE(D14:K14)</f>
+        <v>2.875</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2312051</v>
+      </c>
+      <c r="D23" s="8">
+        <f>AVERAGE(D16:K16)</f>
+        <v>2.625</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2576254</v>
+      </c>
+      <c r="D24" s="8">
+        <f>AVERAGE(D17:K17)</f>
+        <v>1.75</v>
+      </c>
+      <c r="E24" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="4">
+        <v>355715</v>
+      </c>
+      <c r="D25" s="8">
+        <f>AVERAGE(D15:K15)</f>
+        <v>1.875</v>
+      </c>
+      <c r="E25" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1780632</v>
+      </c>
+      <c r="D26" s="8">
+        <f>AVERAGE(D13:K13)</f>
+        <v>1.625</v>
+      </c>
+      <c r="E26" s="8">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="H20:I20"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I22" r:id="rId1" display="https://www.linkedin.com/jobs/view/1819425686" tooltip="https://www.linkedin.com/jobs/view/1819425686"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/resultados parciais.xlsx
+++ b/resultados parciais.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>Metricas Coletadas</t>
   </si>
@@ -58,6 +58,24 @@
     <t xml:space="preserve">Reputação </t>
   </si>
   <si>
+    <t>vulnerabilidades</t>
+  </si>
+  <si>
+    <t>blocos duplicados</t>
+  </si>
+  <si>
+    <t>code smells</t>
+  </si>
+  <si>
+    <t>lihas duplicadas</t>
+  </si>
+  <si>
+    <t>bugs</t>
+  </si>
+  <si>
+    <t>Percentual de cobertura de testes</t>
+  </si>
+  <si>
     <t>jwd-ali</t>
   </si>
   <si>
@@ -176,6 +194,12 @@
   </si>
   <si>
     <t>Escala da reputação</t>
+  </si>
+  <si>
+    <t>indice de confiança de qualidade do soarqube</t>
+  </si>
+  <si>
+    <t>Escala de cobertura de testes</t>
   </si>
   <si>
     <t>Score Geral</t>
@@ -242,7 +266,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,7 +325,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,120 +408,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -412,19 +436,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,163 +616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,13 +658,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,7 +677,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,6 +706,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -689,30 +728,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,6 +746,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -740,146 +764,146 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -901,6 +925,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1230,10 +1263,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:N26"/>
+  <dimension ref="B1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6666666666667" defaultRowHeight="14.4"/>
@@ -1262,7 +1295,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" ht="41.4" spans="2:14">
+    <row r="3" ht="55.2" spans="2:20">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1302,31 +1335,49 @@
       <c r="N3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="O3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:20">
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4">
         <v>1780632</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J4" s="5">
         <v>0</v>
@@ -1335,7 +1386,7 @@
         <v>1.6</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M4" s="5">
         <v>1.67</v>
@@ -1343,40 +1394,58 @@
       <c r="N4" s="5">
         <v>5414</v>
       </c>
+      <c r="O4" s="9">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+      <c r="R4" s="9">
+        <v>0</v>
+      </c>
+      <c r="S4" s="9">
+        <v>0</v>
+      </c>
+      <c r="T4" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:20">
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4">
         <v>5783700</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K5" s="5">
         <v>3.25</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M5" s="5">
         <v>1.12</v>
@@ -1384,40 +1453,60 @@
       <c r="N5" s="5">
         <v>2872</v>
       </c>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="9">
+        <f>198+36</f>
+        <v>234</v>
+      </c>
+      <c r="R5" s="9">
+        <f>639+39</f>
+        <v>678</v>
+      </c>
+      <c r="S5" s="9">
+        <v>38</v>
+      </c>
+      <c r="T5" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:20">
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4">
         <v>355715</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E6" s="5">
         <v>35</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K6" s="5">
         <v>0.22</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M6" s="5">
         <v>1.15</v>
@@ -1425,31 +1514,49 @@
       <c r="N6" s="5">
         <v>4123</v>
       </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>165</v>
+      </c>
+      <c r="R6" s="9">
+        <v>5338</v>
+      </c>
+      <c r="S6" s="9">
+        <v>10</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:20">
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4">
         <v>2312051</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E7" s="5">
         <v>43</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J7" s="5">
         <v>0</v>
@@ -1458,7 +1565,7 @@
         <v>2.31</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M7" s="5">
         <v>0.08</v>
@@ -1466,10 +1573,28 @@
       <c r="N7" s="5">
         <v>3698</v>
       </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:20">
       <c r="B8" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C8" s="4">
         <v>2576254</v>
@@ -1484,37 +1609,55 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K8" s="5">
         <v>1.08</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M8" s="5">
         <v>0.53</v>
       </c>
       <c r="N8" s="5">
         <v>4540</v>
+      </c>
+      <c r="O8" s="9">
+        <v>1</v>
+      </c>
+      <c r="P8" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>10</v>
+      </c>
+      <c r="R8" s="9">
+        <v>84</v>
+      </c>
+      <c r="S8" s="9">
+        <v>9</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" ht="69" spans="2:11">
+    <row r="12" ht="69" spans="2:13">
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
@@ -1522,33 +1665,39 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:13">
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4">
         <v>1780632</v>
@@ -1577,10 +1726,16 @@
       <c r="K13" s="6">
         <v>4</v>
       </c>
+      <c r="L13" s="10">
+        <v>1</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:13">
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C14" s="4">
         <v>5783700</v>
@@ -1609,10 +1764,16 @@
       <c r="K14" s="6">
         <v>3</v>
       </c>
+      <c r="L14" s="10">
+        <v>3</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:13">
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C15" s="4">
         <v>355715</v>
@@ -1641,10 +1802,16 @@
       <c r="K15" s="6">
         <v>4</v>
       </c>
+      <c r="L15" s="10">
+        <v>3</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:13">
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C16" s="4">
         <v>2312051</v>
@@ -1673,10 +1840,16 @@
       <c r="K16" s="6">
         <v>4</v>
       </c>
+      <c r="L16" s="10">
+        <v>1</v>
+      </c>
+      <c r="M16" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:13">
       <c r="B17" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C17" s="4">
         <v>2576254</v>
@@ -1704,15 +1877,21 @@
       </c>
       <c r="K17" s="6">
         <v>4</v>
+      </c>
+      <c r="L17" s="10">
+        <v>3</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -1724,55 +1903,55 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="67.2" spans="2:10">
       <c r="B22" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C22" s="4">
         <v>5783700</v>
       </c>
       <c r="D22" s="8">
-        <f>AVERAGE(D14:K14)</f>
-        <v>2.875</v>
+        <f>AVERAGE(D14:M14)</f>
+        <v>2.6</v>
       </c>
       <c r="E22" s="8">
         <v>1</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J22" s="10">
+        <v>68</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C23" s="4">
         <v>2312051</v>
       </c>
       <c r="D23" s="8">
-        <f>AVERAGE(D16:K16)</f>
-        <v>2.625</v>
+        <f>AVERAGE(D16:M16)</f>
+        <v>2.2</v>
       </c>
       <c r="E23" s="8">
         <v>2</v>
@@ -1780,14 +1959,14 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C24" s="4">
-        <v>2576254</v>
+        <v>355715</v>
       </c>
       <c r="D24" s="8">
-        <f>AVERAGE(D17:K17)</f>
-        <v>1.75</v>
+        <f>AVERAGE(D15:M15)</f>
+        <v>1.8</v>
       </c>
       <c r="E24" s="8">
         <v>3</v>
@@ -1795,14 +1974,14 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="4" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C25" s="4">
-        <v>355715</v>
+        <v>2576254</v>
       </c>
       <c r="D25" s="8">
-        <f>AVERAGE(D15:K15)</f>
-        <v>1.875</v>
+        <f>AVERAGE(D17:M17)</f>
+        <v>1.7</v>
       </c>
       <c r="E25" s="8">
         <v>4</v>
@@ -1810,14 +1989,14 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C26" s="4">
         <v>1780632</v>
       </c>
       <c r="D26" s="8">
-        <f>AVERAGE(D13:K13)</f>
-        <v>1.625</v>
+        <f>AVERAGE(D13:M13)</f>
+        <v>1.4</v>
       </c>
       <c r="E26" s="8">
         <v>5</v>

--- a/resultados parciais.xlsx
+++ b/resultados parciais.xlsx
@@ -231,10 +231,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -266,9 +266,78 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,14 +349,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -295,22 +356,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,56 +380,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,31 +408,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,19 +436,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,163 +622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,25 +665,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,6 +705,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -717,17 +738,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,160 +761,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -923,25 +929,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1265,8 +1271,8 @@
   <sheetPr/>
   <dimension ref="B1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6666666666667" defaultRowHeight="14.4"/>
@@ -1394,22 +1400,22 @@
       <c r="N4" s="5">
         <v>5414</v>
       </c>
-      <c r="O4" s="9">
-        <v>0</v>
-      </c>
-      <c r="P4" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>0</v>
-      </c>
-      <c r="R4" s="9">
-        <v>0</v>
-      </c>
-      <c r="S4" s="9">
-        <v>0</v>
-      </c>
-      <c r="T4" s="9">
+      <c r="O4" s="11">
+        <v>0</v>
+      </c>
+      <c r="P4" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>0</v>
+      </c>
+      <c r="R4" s="11">
+        <v>0</v>
+      </c>
+      <c r="S4" s="11">
+        <v>0</v>
+      </c>
+      <c r="T4" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1453,24 +1459,24 @@
       <c r="N5" s="5">
         <v>2872</v>
       </c>
-      <c r="O5" s="9">
-        <v>0</v>
-      </c>
-      <c r="P5" s="9">
+      <c r="O5" s="11">
+        <v>0</v>
+      </c>
+      <c r="P5" s="11">
         <v>30</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="11">
         <f>198+36</f>
         <v>234</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="11">
         <f>639+39</f>
         <v>678</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="11">
         <v>38</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1514,22 +1520,22 @@
       <c r="N6" s="5">
         <v>4123</v>
       </c>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9">
+      <c r="O6" s="11">
+        <v>0</v>
+      </c>
+      <c r="P6" s="11">
         <v>34</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="11">
         <v>165</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="11">
         <v>5338</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="11">
         <v>10</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T6" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1573,22 +1579,22 @@
       <c r="N7" s="5">
         <v>3698</v>
       </c>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-      <c r="P7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>0</v>
-      </c>
-      <c r="R7" s="9">
-        <v>0</v>
-      </c>
-      <c r="S7" s="9">
-        <v>0</v>
-      </c>
-      <c r="T7" s="9">
+      <c r="O7" s="11">
+        <v>0</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0</v>
+      </c>
+      <c r="S7" s="11">
+        <v>0</v>
+      </c>
+      <c r="T7" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1632,22 +1638,22 @@
       <c r="N8" s="5">
         <v>4540</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="11">
         <v>1</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="11">
         <v>3</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="11">
         <v>10</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="11">
         <v>84</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="11">
         <v>9</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1726,10 +1732,10 @@
       <c r="K13" s="6">
         <v>4</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="12">
         <v>1</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1764,10 +1770,10 @@
       <c r="K14" s="6">
         <v>3</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="12">
         <v>3</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1802,10 +1808,10 @@
       <c r="K15" s="6">
         <v>4</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="12">
         <v>3</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1840,10 +1846,10 @@
       <c r="K16" s="6">
         <v>4</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="12">
         <v>1</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1878,10 +1884,10 @@
       <c r="K17" s="6">
         <v>4</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="12">
         <v>3</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1905,13 +1911,13 @@
       <c r="D21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="8" t="s">
         <v>66</v>
       </c>
       <c r="J21" s="3" t="s">
@@ -1925,20 +1931,20 @@
       <c r="C22" s="4">
         <v>5783700</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="9">
         <f>AVERAGE(D14:M14)</f>
         <v>2.6</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="9">
         <v>1</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1949,11 +1955,11 @@
       <c r="C23" s="4">
         <v>2312051</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="9">
         <f>AVERAGE(D16:M16)</f>
         <v>2.2</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1964,11 +1970,11 @@
       <c r="C24" s="4">
         <v>355715</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="9">
         <f>AVERAGE(D15:M15)</f>
         <v>1.8</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="9">
         <v>3</v>
       </c>
     </row>
@@ -1979,11 +1985,11 @@
       <c r="C25" s="4">
         <v>2576254</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="9">
         <f>AVERAGE(D17:M17)</f>
         <v>1.7</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="9">
         <v>4</v>
       </c>
     </row>
@@ -1994,11 +2000,11 @@
       <c r="C26" s="4">
         <v>1780632</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="9">
         <f>AVERAGE(D13:M13)</f>
         <v>1.4</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="9">
         <v>5</v>
       </c>
     </row>
